--- a/All_models_raw_lagged_inversed.xlsx
+++ b/All_models_raw_lagged_inversed.xlsx
@@ -397,7 +397,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.73, 0.92]</t>
+          <t>[ 0.73,  0.73]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -407,7 +407,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.97, 1.12]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
     </row>
@@ -441,7 +441,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.07, 0.02]</t>
+          <t>[-0.07, -0.07]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.02, 0.02]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.02, 0.07]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0, 0.04]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.04, 0.06]</t>
+          <t>[-0.04, -0.04]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.03, 0.01]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.03, 0.07]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.01, 0.04]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[-0.03, 0.1]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-0.02, 0.09]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-0.05, 0.08]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-0.05, 0.05]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0.02, 0.17]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.01, 0.12]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-0.1, 0.05]</t>
+          <t>[-0.10, -0.10]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-0.05, 0.07]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[0.32, 0.45]</t>
+          <t>[ 0.32,  0.32]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-0.02, 0.1]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0.14, 0.25]</t>
+          <t>[ 0.14,  0.14]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.14, 0.21]</t>
+          <t>[ 0.14,  0.14]</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[0.34, 0.38]</t>
+          <t>[ 0.34,  0.34]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.15, 0.17]</t>
+          <t>[ 0.15,  0.15]</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[-0.29, -0.1]</t>
+          <t>[-0.29, -0.29]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-0.19, 0.04]</t>
+          <t>[-0.19, -0.19]</t>
         </is>
       </c>
     </row>
